--- a/deno/gen/dict_detail/dict_detail.xlsx
+++ b/deno/gen/dict_detail/dict_detail.xlsx
@@ -30,25 +30,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">系统字典</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排序</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锁定</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("系统字典")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("值")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("排序")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("启用")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("锁定")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model._dict_id%&gt;</t>
